--- a/static/images/Prototype dataset.xlsx
+++ b/static/images/Prototype dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nushrat/Desktop/HCI_Lab/Project_2/Early_EDA_prototype/static/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC251A-66B7-254D-AF92-D446D26818A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D568A014-BD9E-6D4A-87A4-5D7C400AFC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="108">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6A42F-8C8B-954F-8E5E-EB4490D205AD}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1900,10 +1900,10 @@
     <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="4"/>
     <col min="8" max="8" width="32.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="29.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1961,104 +1961,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>109</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:9" ht="38" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>102</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>110000</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4">
-        <v>97830</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>110</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
-        <v>86125</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>95000</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="38" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>28</v>
+      </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>87000</v>
+      </c>
       <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38" x14ac:dyDescent="0.15">
@@ -2115,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>108</v>
       </c>
@@ -2144,110 +2156,119 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="4">
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="4">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4">
+        <v>97830</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4">
-        <v>108125</v>
+        <v>86125</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="4">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>116</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="F14" s="4">
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>58</v>
@@ -2256,163 +2277,142 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <v>108125</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>116</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>117</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C18" s="4">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="19" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>118</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F19" s="4">
         <v>17</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>119</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C20" s="4">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="38" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>103</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8">
-        <v>45</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="8">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8">
-        <v>110000</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="38" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>104</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="8">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>95000</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="38" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>105</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>87000</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,139 +2898,64 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>118</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="6">
-        <v>17</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>123</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="6">
-        <v>45</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>117</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="6">
-        <v>40</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="6">
-        <v>10</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>101</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="6">
-        <v>29</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="6">
-        <v>3</v>
-      </c>
-      <c r="G43" s="6">
-        <v>55000</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>114</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="6">
-        <v>43</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="6">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6">
-        <v>108125</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I44">
+    <sortCondition ref="A2:A44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>